--- a/AppSheet.xlsx
+++ b/AppSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egaviriv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E493D-571D-4BB3-924C-99920F384A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC0B21-F634-4399-8341-FF5056BA0AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66CF2950-F647-45F8-A866-C2F175F6C29F}"/>
+    <workbookView xWindow="28680" yWindow="-9615" windowWidth="29040" windowHeight="15720" xr2:uid="{66CF2950-F647-45F8-A866-C2F175F6C29F}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECIOS" sheetId="2" r:id="rId1"/>
@@ -303,39 +303,6 @@
     <t>Base de datos de AppSheet.</t>
   </si>
   <si>
-    <t>Conéctese a hojas de cálculo y proveedores de almacenamiento de archivos</t>
-  </si>
-  <si>
-    <t>Controles de seguridad de las aplicaciones</t>
-  </si>
-  <si>
-    <t>Atención al cliente por correo electrónico</t>
-  </si>
-  <si>
-    <t>Base de datos de AppSheet</t>
-  </si>
-  <si>
-    <t>Funciones avanzadas de aplicación y automatización</t>
-  </si>
-  <si>
-    <t>Conéctese a hojas de cálculo, almacenamiento de archivos en la nube, bases de datos en la nube, API y servicios SaaS</t>
-  </si>
-  <si>
-    <t>Atención al cliente prioritaria</t>
-  </si>
-  <si>
-    <t>Funciones avanzadas de aplicación y automatización</t>
-  </si>
-  <si>
-    <t>Conéctese a hojas de cálculo, almacenamiento de archivos en la nube, bases de datos en la nube, API, servicios SaaS y servicios de datos empresariales</t>
-  </si>
-  <si>
-    <t>Seguridad de las aplicaciones y controles de gestión de equipos</t>
-  </si>
-  <si>
-    <t>Controles mejorados de seguridad de aplicaciones, gestión de equipos y gobernanza</t>
-  </si>
-  <si>
     <t>Entorno de prueba</t>
   </si>
   <si>
@@ -344,12 +311,45 @@
   <si>
     <t>Explorar sus aplicaciones con hasta 10 usuarios, utilizando funciones de cualquier plan.</t>
   </si>
+  <si>
+    <t>Funciones avanzadas de aplicación y automatización.</t>
+  </si>
+  <si>
+    <t>Conéctese a hojas de cálculo y proveedores de almacenamiento de archivos.</t>
+  </si>
+  <si>
+    <t>Controles de seguridad de las aplicaciones.</t>
+  </si>
+  <si>
+    <t>Atención al cliente por correo electrónico.</t>
+  </si>
+  <si>
+    <t>Atención al cliente prioritaria.</t>
+  </si>
+  <si>
+    <t>Seguridad de las aplicaciones y controles de gestión de equipos.</t>
+  </si>
+  <si>
+    <t>Modelado de aprendizaje automático.</t>
+  </si>
+  <si>
+    <t>Conéctese a hojas de cálculo, almacenamiento de archivos en la nube, bases de datos en la nube, API y servicios SaaS.</t>
+  </si>
+  <si>
+    <t>Funciones avanzadas de aplicación y automatización.</t>
+  </si>
+  <si>
+    <t>Conéctese a hojas de cálculo, almacenamiento de archivos en la nube, bases de datos en la nube, API, servicios SaaS y servicios de datos empresariales.</t>
+  </si>
+  <si>
+    <t>Controles mejorados de seguridad de aplicaciones, gestión de equipos y gobernanza.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,12 +361,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -384,6 +378,20 @@
     <font>
       <sz val="8"/>
       <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -594,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,44 +613,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +679,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -722,7 +727,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -770,7 +775,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -818,7 +823,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -866,7 +871,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -914,7 +919,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -962,7 +967,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1010,7 +1015,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1634,7 +1639,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1682,7 +1687,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1730,7 +1735,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1778,7 +1783,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2018,7 +2023,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2066,7 +2071,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2114,7 +2119,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2162,7 +2167,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2402,7 +2407,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2450,7 +2455,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2498,7 +2503,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2546,7 +2551,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2786,7 +2791,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2834,7 +2839,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2882,7 +2887,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2930,7 +2935,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4514,7 +4519,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4562,7 +4567,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4610,7 +4615,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4658,7 +4663,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5282,7 +5287,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5330,7 +5335,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5378,7 +5383,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5426,7 +5431,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5666,7 +5671,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5714,7 +5719,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5762,7 +5767,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5810,7 +5815,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8930,7 +8935,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8978,7 +8983,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9026,7 +9031,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9074,7 +9079,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9890,7 +9895,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9938,7 +9943,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9986,7 +9991,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10034,7 +10039,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11234,7 +11239,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11282,7 +11287,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11330,7 +11335,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11378,7 +11383,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11426,7 +11431,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11474,7 +11479,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11522,7 +11527,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11570,7 +11575,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11618,7 +11623,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11666,7 +11671,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11714,7 +11719,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11762,7 +11767,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11810,7 +11815,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11858,7 +11863,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11906,7 +11911,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11954,7 +11959,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12002,7 +12007,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12050,7 +12055,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12098,7 +12103,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12146,7 +12151,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12194,7 +12199,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12242,7 +12247,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12290,7 +12295,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12338,7 +12343,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12386,7 +12391,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12434,7 +12439,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12482,7 +12487,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12530,7 +12535,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14234,17 +14239,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="20.6328125" customWidth="1"/>
+    <col min="1" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>80</v>
@@ -14260,95 +14266,95 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>91</v>
+      <c r="C3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>95</v>
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>97</v>
+      <c r="C5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="C6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>36</v>
+      <c r="C6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="C7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>93</v>
+      <c r="C7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>90</v>
+      <c r="D8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -14361,7 +14367,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14390,1227 +14396,1227 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>200</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2500</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2500</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>200</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="C32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="D45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="D46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="D52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="D55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="C59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="B61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="B62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="D63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="D64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="D65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="B69" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="B70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="6" t="s">
+      <c r="B71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.35">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="B72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>77</v>
       </c>
     </row>
